--- a/R-NLP/msft_nrc.xlsx
+++ b/R-NLP/msft_nrc.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44280.79166666667</v>
+        <v>44281.41666666667</v>
       </c>
       <c r="B2">
         <v>-1.194052892150928</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44280.83333333333</v>
+        <v>44281.45833333333</v>
       </c>
       <c r="B3">
-        <v>-1.252032127173076</v>
+        <v>-1.252032127173077</v>
       </c>
       <c r="C3" s="3">
         <v>44281</v>
@@ -488,10 +488,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44280.875</v>
+        <v>44281.5</v>
       </c>
       <c r="B4">
-        <v>-1.242163321211861</v>
+        <v>-1.242163321211862</v>
       </c>
       <c r="C4" s="3">
         <v>44281</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44280.91666666667</v>
+        <v>44281.54166666667</v>
       </c>
       <c r="B5">
         <v>-1.439539440436196</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44280.95833333333</v>
+        <v>44281.58333333333</v>
       </c>
       <c r="B6">
         <v>-1.397597015101024</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44281</v>
+        <v>44281.625</v>
       </c>
       <c r="B7">
         <v>-1.387728209139806</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44281.04166666667</v>
+        <v>44281.66666666667</v>
       </c>
       <c r="B8">
-        <v>-1.158278470541518</v>
+        <v>-1.158278470541519</v>
       </c>
       <c r="C8" s="3">
         <v>44281</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44281.08333333333</v>
+        <v>44281.70833333333</v>
       </c>
       <c r="B9">
         <v>-1.20022089587669</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44281.125</v>
+        <v>44281.75</v>
       </c>
       <c r="B10">
         <v>-1.047871203850405</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44281.16666666667</v>
+        <v>44281.79166666667</v>
       </c>
       <c r="B11">
-        <v>-0.9201935267271637</v>
+        <v>-0.9201935267271639</v>
       </c>
       <c r="C11" s="3">
         <v>44281</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44281.20833333333</v>
+        <v>44281.83333333333</v>
       </c>
       <c r="B12">
         <v>-1.107700839990283</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>44281.25</v>
+        <v>44281.875</v>
       </c>
       <c r="B13">
-        <v>-0.969537556533248</v>
+        <v>-0.9695375565332482</v>
       </c>
       <c r="C13" s="3">
         <v>44281</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>44281.29166666667</v>
+        <v>44281.91666666667</v>
       </c>
       <c r="B14">
-        <v>-0.7832638440152833</v>
+        <v>-0.7832638440152834</v>
       </c>
       <c r="C14" s="3">
         <v>44281</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>44281.33333333333</v>
+        <v>44281.95833333333</v>
       </c>
       <c r="B15">
-        <v>-0.7832638440152833</v>
+        <v>-0.7832638440152834</v>
       </c>
       <c r="C15" s="3">
         <v>44281</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>44281.375</v>
+        <v>44282</v>
       </c>
       <c r="B16">
-        <v>-0.817804664879542</v>
+        <v>-0.8178046648795422</v>
       </c>
       <c r="C16" s="3">
         <v>44281</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>44281.41666666667</v>
+        <v>44282.04166666667</v>
       </c>
       <c r="B17">
-        <v>-0.8165710641343875</v>
+        <v>-0.8165710641343876</v>
       </c>
       <c r="C17" s="3">
         <v>44281</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44281.45833333333</v>
+        <v>44282.08333333333</v>
       </c>
       <c r="B18">
-        <v>-0.7832638440152833</v>
+        <v>-0.7832638440152834</v>
       </c>
       <c r="C18" s="3">
         <v>44281</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>44283.79166666667</v>
+        <v>44284.41666666667</v>
       </c>
       <c r="B19">
-        <v>-0.884419105117754</v>
+        <v>-0.8844191051177541</v>
       </c>
       <c r="C19" s="3">
         <v>44284</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>44283.83333333333</v>
+        <v>44284.45833333333</v>
       </c>
       <c r="B20">
-        <v>-0.8918207095886668</v>
+        <v>-0.891820709588667</v>
       </c>
       <c r="C20" s="3">
         <v>44284</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>44283.875</v>
+        <v>44284.5</v>
       </c>
       <c r="B21">
-        <v>-0.8918207095886668</v>
+        <v>-0.891820709588667</v>
       </c>
       <c r="C21" s="3">
         <v>44284</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>44283.91666666667</v>
+        <v>44284.54166666667</v>
       </c>
       <c r="B22">
-        <v>-0.7807966425249778</v>
+        <v>-0.7807966425249779</v>
       </c>
       <c r="C22" s="3">
         <v>44284</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>44283.95833333333</v>
+        <v>44284.58333333333</v>
       </c>
       <c r="B23">
-        <v>-0.8733166984113847</v>
+        <v>-0.8733166984113849</v>
       </c>
       <c r="C23" s="3">
         <v>44284</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>44284</v>
+        <v>44284.625</v>
       </c>
       <c r="B24">
-        <v>-0.7240510082479805</v>
+        <v>-0.7240510082479807</v>
       </c>
       <c r="C24" s="3">
         <v>44284</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>44284.04166666667</v>
+        <v>44284.66666666667</v>
       </c>
       <c r="B25">
         <v>-1.333449776353114</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>44284.08333333333</v>
+        <v>44284.70833333333</v>
       </c>
       <c r="B26">
         <v>-1.124971250422411</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>44284.125</v>
+        <v>44284.75</v>
       </c>
       <c r="B27">
         <v>-1.145942463089998</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>44284.16666666667</v>
+        <v>44284.79166666667</v>
       </c>
       <c r="B28">
-        <v>-0.9448655416302076</v>
+        <v>-0.9448655416302079</v>
       </c>
       <c r="C28" s="3">
         <v>44284</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>44284.20833333333</v>
+        <v>44284.83333333333</v>
       </c>
       <c r="B29">
         <v>-1.002844776652356</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>44284.25</v>
+        <v>44284.875</v>
       </c>
       <c r="B30">
-        <v>-0.996676772926594</v>
+        <v>-0.9966767729265942</v>
       </c>
       <c r="C30" s="3">
         <v>44284</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>44284.29166666667</v>
+        <v>44284.91666666667</v>
       </c>
       <c r="B31">
-        <v>-0.9312959334335329</v>
+        <v>-0.9312959334335331</v>
       </c>
       <c r="C31" s="3">
         <v>44284</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>44284.33333333333</v>
+        <v>44284.95833333333</v>
       </c>
       <c r="B32">
-        <v>-0.9362303364141403</v>
+        <v>-0.9362303364141406</v>
       </c>
       <c r="C32" s="3">
         <v>44284</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>44284.375</v>
+        <v>44285</v>
       </c>
       <c r="B33">
-        <v>-0.9274347631012084</v>
+        <v>-0.9274347631012086</v>
       </c>
       <c r="C33" s="3">
         <v>44284</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>44284.41666666667</v>
+        <v>44285.04166666667</v>
       </c>
       <c r="B34">
-        <v>-0.8942879110789688</v>
+        <v>-0.894287911078969</v>
       </c>
       <c r="C34" s="3">
         <v>44284</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>44284.45833333333</v>
+        <v>44285.08333333333</v>
       </c>
       <c r="B35">
-        <v>-0.9362303364141403</v>
+        <v>-0.9362303364141406</v>
       </c>
       <c r="C35" s="3">
         <v>44284</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44284.79166666667</v>
+        <v>44285.41666666667</v>
       </c>
       <c r="B36">
         <v>-1.207622500347603</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>44284.83333333333</v>
+        <v>44285.45833333333</v>
       </c>
       <c r="B37">
-        <v>-1.158278470541518</v>
+        <v>-1.158278470541519</v>
       </c>
       <c r="C37" s="3">
         <v>44285</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>44284.875</v>
+        <v>44285.5</v>
       </c>
       <c r="B38">
         <v>-1.153344067560911</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>44284.91666666667</v>
+        <v>44285.54166666667</v>
       </c>
       <c r="B39">
-        <v>-1.196520093641233</v>
+        <v>-1.196520093641234</v>
       </c>
       <c r="C39" s="3">
         <v>44285</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>44284.95833333333</v>
+        <v>44285.58333333333</v>
       </c>
       <c r="B40">
         <v>-1.143475261599693</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>44285</v>
+        <v>44285.625</v>
       </c>
       <c r="B41">
-        <v>-1.150876866070605</v>
+        <v>-1.150876866070606</v>
       </c>
       <c r="C41" s="3">
         <v>44285</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>44285.04166666667</v>
+        <v>44285.66666666667</v>
       </c>
       <c r="B42">
         <v>-1.360638336776268</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>44285.08333333333</v>
+        <v>44285.70833333333</v>
       </c>
       <c r="B43">
         <v>-1.34582279182699</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44285.125</v>
+        <v>44285.75</v>
       </c>
       <c r="B44">
         <v>-1.356888190511004</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44285.16666666667</v>
+        <v>44285.79166666667</v>
       </c>
       <c r="B45">
         <v>-1.285339347292184</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>44285.20833333333</v>
+        <v>44285.83333333333</v>
       </c>
       <c r="B46">
-        <v>-1.364289794981916</v>
+        <v>-1.364289794981917</v>
       </c>
       <c r="C46" s="3">
         <v>44285</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>44285.25</v>
+        <v>44285.875</v>
       </c>
       <c r="B47">
         <v>-1.326048171882201</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>44285.29166666667</v>
+        <v>44285.91666666667</v>
       </c>
       <c r="B48">
         <v>-1.354420989020702</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>44285.33333333333</v>
+        <v>44285.95833333333</v>
       </c>
       <c r="B49">
         <v>-1.347019384549789</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>44285.375</v>
+        <v>44286</v>
       </c>
       <c r="B50">
         <v>-1.350720186785245</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>44285.41666666667</v>
+        <v>44286.04166666667</v>
       </c>
       <c r="B51">
-        <v>-1.384027406904349</v>
+        <v>-1.38402740690435</v>
       </c>
       <c r="C51" s="3">
         <v>44285</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>44285.45833333333</v>
+        <v>44286.08333333333</v>
       </c>
       <c r="B52">
         <v>-1.354420989020702</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>44285.79166666667</v>
+        <v>44286.41666666667</v>
       </c>
       <c r="B53">
         <v>-1.328515373372507</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>44285.83333333333</v>
+        <v>44286.45833333333</v>
       </c>
       <c r="B54">
         <v>-1.340851380824027</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>44285.875</v>
+        <v>44286.5</v>
       </c>
       <c r="B55">
         <v>-1.256966530153687</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>44285.91666666667</v>
+        <v>44286.54166666667</v>
       </c>
       <c r="B56">
-        <v>-1.243396921957012</v>
+        <v>-1.243396921957013</v>
       </c>
       <c r="C56" s="3">
         <v>44286</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>44285.95833333333</v>
+        <v>44286.58333333333</v>
       </c>
       <c r="B57">
         <v>-1.2359953174861</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>44286</v>
+        <v>44286.625</v>
       </c>
       <c r="B58">
-        <v>-1.244630522702163</v>
+        <v>-1.244630522702164</v>
       </c>
       <c r="C58" s="3">
         <v>44286</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>44286.04166666667</v>
+        <v>44286.66666666667</v>
       </c>
       <c r="B59">
-        <v>-0.9818735639847683</v>
+        <v>-0.9818735639847685</v>
       </c>
       <c r="C59" s="3">
         <v>44286</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>44286.08333333333</v>
+        <v>44286.70833333333</v>
       </c>
       <c r="B60">
-        <v>-0.8979887133144252</v>
+        <v>-0.8979887133144253</v>
       </c>
       <c r="C60" s="3">
         <v>44286</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>44286.125</v>
+        <v>44286.75</v>
       </c>
       <c r="B61">
-        <v>-0.7610590306025448</v>
+        <v>-0.7610590306025449</v>
       </c>
       <c r="C61" s="3">
         <v>44286</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>44286.16666666667</v>
+        <v>44286.79166666667</v>
       </c>
       <c r="B62">
-        <v>-0.7790696014817636</v>
+        <v>-0.7790696014817637</v>
       </c>
       <c r="C62" s="3">
         <v>44286</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>44286.20833333333</v>
+        <v>44286.83333333333</v>
       </c>
       <c r="B63">
-        <v>-0.9812567636121928</v>
+        <v>-0.9812567636121931</v>
       </c>
       <c r="C63" s="3">
         <v>44286</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>44286.25</v>
+        <v>44286.875</v>
       </c>
       <c r="B64">
-        <v>-0.6376989560873355</v>
+        <v>-0.6376989560873356</v>
       </c>
       <c r="C64" s="3">
         <v>44286</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>44286.29166666667</v>
+        <v>44286.91666666667</v>
       </c>
       <c r="B65">
-        <v>-0.8708494969210793</v>
+        <v>-0.8708494969210795</v>
       </c>
       <c r="C65" s="3">
         <v>44286</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>44286.33333333333</v>
+        <v>44286.95833333333</v>
       </c>
       <c r="B66">
-        <v>-0.6870429858934198</v>
+        <v>-0.6870429858934201</v>
       </c>
       <c r="C66" s="3">
         <v>44286</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>44286.375</v>
+        <v>44287</v>
       </c>
       <c r="B67">
-        <v>-0.6413997583227918</v>
+        <v>-0.6413997583227921</v>
       </c>
       <c r="C67" s="3">
         <v>44286</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>44286.41666666667</v>
+        <v>44287.04166666667</v>
       </c>
       <c r="B68">
-        <v>-0.6574365680097686</v>
+        <v>-0.6574365680097687</v>
       </c>
       <c r="C68" s="3">
         <v>44286</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>44286.45833333333</v>
+        <v>44287.08333333333</v>
       </c>
       <c r="B69">
-        <v>-0.8708494969210793</v>
+        <v>-0.8708494969210795</v>
       </c>
       <c r="C69" s="3">
         <v>44286</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>44286.79166666667</v>
+        <v>44287.41666666667</v>
       </c>
       <c r="B70">
-        <v>-0.5155724823172771</v>
+        <v>-0.5155724823172773</v>
       </c>
       <c r="C70" s="3">
         <v>44287</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>44286.83333333333</v>
+        <v>44287.45833333333</v>
       </c>
       <c r="B71">
-        <v>-0.5402444972203211</v>
+        <v>-0.5402444972203213</v>
       </c>
       <c r="C71" s="3">
         <v>44287</v>
@@ -3506,10 +3506,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>44286.875</v>
+        <v>44287.5</v>
       </c>
       <c r="B72">
-        <v>-0.5464125009460795</v>
+        <v>-0.5464125009460796</v>
       </c>
       <c r="C72" s="3">
         <v>44287</v>
@@ -3557,10 +3557,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>44286.91666666667</v>
+        <v>44287.54166666667</v>
       </c>
       <c r="B73">
-        <v>-0.5340764934945593</v>
+        <v>-0.5340764934945594</v>
       </c>
       <c r="C73" s="3">
         <v>44287</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>44286.95833333333</v>
+        <v>44287.58333333333</v>
       </c>
       <c r="B74">
-        <v>-0.524207687533341</v>
+        <v>-0.5242076875333411</v>
       </c>
       <c r="C74" s="3">
         <v>44287</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>44287</v>
+        <v>44287.625</v>
       </c>
       <c r="B75">
-        <v>-0.5266748890236465</v>
+        <v>-0.5266748890236466</v>
       </c>
       <c r="C75" s="3">
         <v>44287</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>44287.04166666667</v>
+        <v>44287.66666666667</v>
       </c>
       <c r="B76">
         <v>-0.1442586580264985</v>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>44287.08333333333</v>
+        <v>44287.70833333333</v>
       </c>
       <c r="B77">
-        <v>-0.1504266617522568</v>
+        <v>-0.1504266617522569</v>
       </c>
       <c r="C77" s="3">
         <v>44287</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>44287.125</v>
+        <v>44287.75</v>
       </c>
       <c r="B78">
         <v>-0.2158075012453179</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>44287.16666666667</v>
+        <v>44287.79166666667</v>
       </c>
       <c r="B79">
-        <v>-0.176110229266324</v>
+        <v>-0.1761102292663241</v>
       </c>
       <c r="C79" s="3">
         <v>44287</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>44287.20833333333</v>
+        <v>44287.83333333333</v>
       </c>
       <c r="B80">
         <v>-0.1078674360445098</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>44287.25</v>
+        <v>44287.875</v>
       </c>
       <c r="B81">
         <v>-0.1602954677134751</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>44287.29166666667</v>
+        <v>44287.91666666667</v>
       </c>
       <c r="B82">
-        <v>-0.05914020661100435</v>
+        <v>-0.05914020661100437</v>
       </c>
       <c r="C82" s="3">
         <v>44287</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>44287.33333333333</v>
+        <v>44287.95833333333</v>
       </c>
       <c r="B83">
-        <v>-0.04063619543372226</v>
+        <v>-0.04063619543372227</v>
       </c>
       <c r="C83" s="3">
         <v>44287</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>44287.375</v>
+        <v>44288</v>
       </c>
       <c r="B84">
-        <v>-0.05914020661100435</v>
+        <v>-0.05914020661100437</v>
       </c>
       <c r="C84" s="3">
         <v>44287</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>44287.41666666667</v>
+        <v>44288.04166666667</v>
       </c>
       <c r="B85">
-        <v>-0.05297220288524249</v>
+        <v>-0.0529722028852425</v>
       </c>
       <c r="C85" s="3">
         <v>44287</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>44287.45833333333</v>
+        <v>44288.08333333333</v>
       </c>
       <c r="B86">
-        <v>-0.05914020661100435</v>
+        <v>-0.05914020661100437</v>
       </c>
       <c r="C86" s="3">
         <v>44287</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>44290.79166666667</v>
+        <v>44291.41666666667</v>
       </c>
       <c r="B87">
-        <v>-0.00979617680491995</v>
+        <v>-0.009796176804919952</v>
       </c>
       <c r="C87" s="3">
         <v>44291</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>44290.83333333333</v>
+        <v>44291.45833333333</v>
       </c>
       <c r="B88">
-        <v>-0.05914020661100435</v>
+        <v>-0.05914020661100437</v>
       </c>
       <c r="C88" s="3">
         <v>44291</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>44290.875</v>
+        <v>44291.5</v>
       </c>
       <c r="B89">
         <v>-0.002394572334007114</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>44290.91666666667</v>
+        <v>44291.54166666667</v>
       </c>
       <c r="B90">
-        <v>-0.09984903120102144</v>
+        <v>-0.09984903120102147</v>
       </c>
       <c r="C90" s="3">
         <v>44291</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>44290.95833333333</v>
+        <v>44291.58333333333</v>
       </c>
       <c r="B91">
         <v>-0.05667300512069891</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>44291</v>
+        <v>44291.625</v>
       </c>
       <c r="B92">
         <v>-0.01349697904037637</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>44291.04166666667</v>
+        <v>44291.66666666667</v>
       </c>
       <c r="B93">
-        <v>0.6526474233417543</v>
+        <v>0.6526474233417544</v>
       </c>
       <c r="C93" s="3">
         <v>44291</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>44291.08333333333</v>
+        <v>44291.70833333333</v>
       </c>
       <c r="B94">
-        <v>0.6711514345190364</v>
+        <v>0.6711514345190366</v>
       </c>
       <c r="C94" s="3">
         <v>44291</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>44291.125</v>
+        <v>44291.75</v>
       </c>
       <c r="B95">
-        <v>0.7676683568197356</v>
+        <v>0.7676683568197358</v>
       </c>
       <c r="C95" s="3">
         <v>44291</v>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>44291.16666666667</v>
+        <v>44291.79166666667</v>
       </c>
       <c r="B96">
-        <v>0.8549579455466958</v>
+        <v>0.854957945546696</v>
       </c>
       <c r="C96" s="3">
         <v>44291</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>44291.20833333333</v>
+        <v>44291.83333333333</v>
       </c>
       <c r="B97">
-        <v>0.7957451097793966</v>
+        <v>0.7957451097793968</v>
       </c>
       <c r="C97" s="3">
         <v>44291</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>44291.25</v>
+        <v>44291.875</v>
       </c>
       <c r="B98">
-        <v>0.6822538412254057</v>
+        <v>0.6822538412254058</v>
       </c>
       <c r="C98" s="3">
         <v>44291</v>
@@ -4883,10 +4883,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>44291.29166666667</v>
+        <v>44291.91666666667</v>
       </c>
       <c r="B99">
-        <v>0.7612042889151379</v>
+        <v>0.761204288915138</v>
       </c>
       <c r="C99" s="3">
         <v>44291</v>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>44291.33333333333</v>
+        <v>44291.95833333333</v>
       </c>
       <c r="B100">
-        <v>0.8096971342070671</v>
+        <v>0.8096971342070673</v>
       </c>
       <c r="C100" s="3">
         <v>44291</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>44291.375</v>
+        <v>44292</v>
       </c>
       <c r="B101">
-        <v>0.800679512760004</v>
+        <v>0.8006795127600042</v>
       </c>
       <c r="C101" s="3">
         <v>44291</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>44291.41666666667</v>
+        <v>44292.04166666667</v>
       </c>
       <c r="B102">
-        <v>0.8031467142503095</v>
+        <v>0.8031467142503096</v>
       </c>
       <c r="C102" s="3">
         <v>44291</v>
@@ -5087,10 +5087,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>44291.45833333333</v>
+        <v>44292.08333333333</v>
       </c>
       <c r="B103">
-        <v>0.7698394941312017</v>
+        <v>0.7698394941312019</v>
       </c>
       <c r="C103" s="3">
         <v>44291</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>44291.79166666667</v>
+        <v>44292.41666666667</v>
       </c>
       <c r="B104">
-        <v>0.5922009868293007</v>
+        <v>0.5922009868293008</v>
       </c>
       <c r="C104" s="3">
         <v>44292</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>44291.83333333333</v>
+        <v>44292.45833333333</v>
       </c>
       <c r="B105">
-        <v>0.6403114158902341</v>
+        <v>0.6403114158902342</v>
       </c>
       <c r="C105" s="3">
         <v>44292</v>
@@ -5240,10 +5240,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>44291.875</v>
+        <v>44292.5</v>
       </c>
       <c r="B106">
-        <v>0.5860329831035422</v>
+        <v>0.5860329831035425</v>
       </c>
       <c r="C106" s="3">
         <v>44292</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>44291.91666666667</v>
+        <v>44292.54166666667</v>
       </c>
       <c r="B107">
-        <v>0.6267418076935594</v>
+        <v>0.6267418076935595</v>
       </c>
       <c r="C107" s="3">
         <v>44292</v>
@@ -5342,10 +5342,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>44291.95833333333</v>
+        <v>44292.58333333333</v>
       </c>
       <c r="B108">
-        <v>0.6908890464414694</v>
+        <v>0.6908890464414696</v>
       </c>
       <c r="C108" s="3">
         <v>44292</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>44292</v>
+        <v>44292.625</v>
       </c>
       <c r="B109">
-        <v>0.5810985801229314</v>
+        <v>0.5810985801229315</v>
       </c>
       <c r="C109" s="3">
         <v>44292</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>44292.04166666667</v>
+        <v>44292.66666666667</v>
       </c>
       <c r="B110">
-        <v>0.6637498300481236</v>
+        <v>0.6637498300481237</v>
       </c>
       <c r="C110" s="3">
         <v>44292</v>
@@ -5495,10 +5495,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>44292.08333333333</v>
+        <v>44292.70833333333</v>
       </c>
       <c r="B111">
-        <v>0.6847210427157076</v>
+        <v>0.6847210427157078</v>
       </c>
       <c r="C111" s="3">
         <v>44292</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>44292.125</v>
+        <v>44292.75</v>
       </c>
       <c r="B112">
-        <v>0.7439338784830103</v>
+        <v>0.7439338784830104</v>
       </c>
       <c r="C112" s="3">
         <v>44292</v>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>44292.16666666667</v>
+        <v>44292.79166666667</v>
       </c>
       <c r="B113">
-        <v>0.6612826285578181</v>
+        <v>0.6612826285578183</v>
       </c>
       <c r="C113" s="3">
         <v>44292</v>
@@ -5648,10 +5648,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>44292.20833333333</v>
+        <v>44292.83333333333</v>
       </c>
       <c r="B114">
-        <v>0.7414666769927049</v>
+        <v>0.741466676992705</v>
       </c>
       <c r="C114" s="3">
         <v>44292</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>44292.25</v>
+        <v>44292.875</v>
       </c>
       <c r="B115">
-        <v>0.7118602591090535</v>
+        <v>0.7118602591090536</v>
       </c>
       <c r="C115" s="3">
         <v>44292</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>44292.29166666667</v>
+        <v>44292.91666666667</v>
       </c>
       <c r="B116">
-        <v>0.620573803967801</v>
+        <v>0.6205738039678012</v>
       </c>
       <c r="C116" s="3">
         <v>44292</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>44292.33333333333</v>
+        <v>44292.95833333333</v>
       </c>
       <c r="B117">
-        <v>0.6538810240869053</v>
+        <v>0.6538810240869054</v>
       </c>
       <c r="C117" s="3">
         <v>44292</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>44292.375</v>
+        <v>44293</v>
       </c>
       <c r="B118">
-        <v>0.6625162293029691</v>
+        <v>0.6625162293029693</v>
       </c>
       <c r="C118" s="3">
         <v>44292</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>44292.41666666667</v>
+        <v>44293.04166666667</v>
       </c>
       <c r="B119">
-        <v>0.6600490278126672</v>
+        <v>0.6600490278126673</v>
       </c>
       <c r="C119" s="3">
         <v>44292</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>44292.45833333333</v>
+        <v>44293.08333333333</v>
       </c>
       <c r="B120">
-        <v>0.620573803967801</v>
+        <v>0.6205738039678012</v>
       </c>
       <c r="C120" s="3">
         <v>44292</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>44292.83333333333</v>
+        <v>44293.45833333333</v>
       </c>
       <c r="B121">
-        <v>0.6933562479317714</v>
+        <v>0.6933562479317715</v>
       </c>
       <c r="C121" s="3">
         <v>44293</v>
@@ -6056,10 +6056,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>44292.875</v>
+        <v>44293.5</v>
       </c>
       <c r="B122">
-        <v>0.688421844951164</v>
+        <v>0.6884218449511642</v>
       </c>
       <c r="C122" s="3">
         <v>44293</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>44292.91666666667</v>
+        <v>44293.54166666667</v>
       </c>
       <c r="B123">
-        <v>0.6390778151450796</v>
+        <v>0.6390778151450798</v>
       </c>
       <c r="C123" s="3">
         <v>44293</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>44292.95833333333</v>
+        <v>44293.58333333333</v>
       </c>
       <c r="B124">
-        <v>0.6464794196159924</v>
+        <v>0.6464794196159925</v>
       </c>
       <c r="C124" s="3">
         <v>44293</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>44293</v>
+        <v>44293.625</v>
       </c>
       <c r="B125">
-        <v>0.6230410054581029</v>
+        <v>0.6230410054581031</v>
       </c>
       <c r="C125" s="3">
         <v>44293</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>44293.04166666667</v>
+        <v>44293.66666666667</v>
       </c>
       <c r="B126">
-        <v>0.8648267515079141</v>
+        <v>0.8648267515079142</v>
       </c>
       <c r="C126" s="3">
         <v>44293</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>44293.08333333333</v>
+        <v>44293.70833333333</v>
       </c>
       <c r="B127">
-        <v>0.8882651656658036</v>
+        <v>0.8882651656658037</v>
       </c>
       <c r="C127" s="3">
         <v>44293</v>
@@ -6362,10 +6362,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>44293.125</v>
+        <v>44293.75</v>
       </c>
       <c r="B128">
-        <v>0.8586587477821522</v>
+        <v>0.8586587477821523</v>
       </c>
       <c r="C128" s="3">
         <v>44293</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44293.16666666667</v>
+        <v>44293.79166666667</v>
       </c>
       <c r="B129">
-        <v>0.8376875351145682</v>
+        <v>0.8376875351145684</v>
       </c>
       <c r="C129" s="3">
         <v>44293</v>
@@ -6464,10 +6464,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44293.20833333333</v>
+        <v>44293.83333333333</v>
       </c>
       <c r="B130">
-        <v>0.9450107999428008</v>
+        <v>0.945010799942801</v>
       </c>
       <c r="C130" s="3">
         <v>44293</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44293.25</v>
+        <v>44293.875</v>
       </c>
       <c r="B131">
-        <v>0.7846427030730274</v>
+        <v>0.7846427030730275</v>
       </c>
       <c r="C131" s="3">
         <v>44293</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44293.29166666667</v>
+        <v>44293.91666666667</v>
       </c>
       <c r="B132">
-        <v>0.8722283559788269</v>
+        <v>0.8722283559788271</v>
       </c>
       <c r="C132" s="3">
         <v>44293</v>
@@ -6617,10 +6617,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44293.33333333333</v>
+        <v>44293.95833333333</v>
       </c>
       <c r="B133">
-        <v>0.8969003708818674</v>
+        <v>0.8969003708818676</v>
       </c>
       <c r="C133" s="3">
         <v>44293</v>
@@ -6668,10 +6668,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44293.375</v>
+        <v>44294</v>
       </c>
       <c r="B134">
-        <v>0.9030683746076292</v>
+        <v>0.9030683746076295</v>
       </c>
       <c r="C134" s="3">
         <v>44293</v>
@@ -6719,10 +6719,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44293.41666666667</v>
+        <v>44294.04166666667</v>
       </c>
       <c r="B135">
-        <v>0.9030683746076292</v>
+        <v>0.9030683746076295</v>
       </c>
       <c r="C135" s="3">
         <v>44293</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44293.45833333333</v>
+        <v>44294.08333333333</v>
       </c>
       <c r="B136">
-        <v>0.8722283559788269</v>
+        <v>0.8722283559788271</v>
       </c>
       <c r="C136" s="3">
         <v>44293</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44293.79166666667</v>
+        <v>44294.41666666667</v>
       </c>
       <c r="B137">
         <v>1.115247702773789</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44293.83333333333</v>
+        <v>44294.45833333333</v>
       </c>
       <c r="B138">
         <v>1.11648130351894</v>
@@ -6923,10 +6923,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44293.875</v>
+        <v>44294.5</v>
       </c>
       <c r="B139">
-        <v>1.20530055716989</v>
+        <v>1.205300557169891</v>
       </c>
       <c r="C139" s="3">
         <v>44294</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44293.91666666667</v>
+        <v>44294.54166666667</v>
       </c>
       <c r="B140">
         <v>1.18062854226685</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44293.95833333333</v>
+        <v>44294.58333333333</v>
       </c>
       <c r="B141">
         <v>1.141153318421984</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44294</v>
+        <v>44294.625</v>
       </c>
       <c r="B142">
         <v>1.247242982505062</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44294.04166666667</v>
+        <v>44294.66666666667</v>
       </c>
       <c r="B143">
         <v>1.263279792192039</v>
@@ -7178,10 +7178,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44294.08333333333</v>
+        <v>44294.70833333333</v>
       </c>
       <c r="B144">
-        <v>1.249710183995367</v>
+        <v>1.249710183995368</v>
       </c>
       <c r="C144" s="3">
         <v>44294</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44294.125</v>
+        <v>44294.75</v>
       </c>
       <c r="B145">
         <v>1.215169363131109</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44294.16666666667</v>
+        <v>44294.79166666667</v>
       </c>
       <c r="B146">
-        <v>1.202833355679588</v>
+        <v>1.202833355679589</v>
       </c>
       <c r="C146" s="3">
         <v>44294</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44294.20833333333</v>
+        <v>44294.83333333333</v>
       </c>
       <c r="B147">
         <v>1.301521415291754</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44294.25</v>
+        <v>44294.875</v>
       </c>
       <c r="B148">
         <v>1.253410986230824</v>
@@ -7433,10 +7433,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44294.29166666667</v>
+        <v>44294.91666666667</v>
       </c>
       <c r="B149">
-        <v>1.285484605604777</v>
+        <v>1.285484605604778</v>
       </c>
       <c r="C149" s="3">
         <v>44294</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44294.33333333333</v>
+        <v>44294.95833333333</v>
       </c>
       <c r="B150">
         <v>1.334828635410862</v>
@@ -7535,10 +7535,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44294.375</v>
+        <v>44295</v>
       </c>
       <c r="B151">
-        <v>1.349631844352687</v>
+        <v>1.349631844352688</v>
       </c>
       <c r="C151" s="3">
         <v>44294</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44294.41666666667</v>
+        <v>44295.04166666667</v>
       </c>
       <c r="B152">
         <v>1.31632462423358</v>
@@ -7637,10 +7637,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44294.45833333333</v>
+        <v>44295.08333333333</v>
       </c>
       <c r="B153">
-        <v>1.285484605604777</v>
+        <v>1.285484605604778</v>
       </c>
       <c r="C153" s="3">
         <v>44294</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44294.79166666667</v>
+        <v>44295.41666666667</v>
       </c>
       <c r="B154">
         <v>1.22873897132778</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44294.83333333333</v>
+        <v>44295.45833333333</v>
       </c>
       <c r="B155">
         <v>1.218870165366565</v>
@@ -7790,10 +7790,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44294.875</v>
+        <v>44295.5</v>
       </c>
       <c r="B156">
-        <v>1.213935762385954</v>
+        <v>1.213935762385955</v>
       </c>
       <c r="C156" s="3">
         <v>44295</v>
@@ -7841,10 +7841,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44294.91666666667</v>
+        <v>44295.54166666667</v>
       </c>
       <c r="B157">
-        <v>1.279316601879015</v>
+        <v>1.279316601879016</v>
       </c>
       <c r="C157" s="3">
         <v>44295</v>
@@ -7892,10 +7892,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44294.95833333333</v>
+        <v>44295.58333333333</v>
       </c>
       <c r="B158">
-        <v>1.194198150463521</v>
+        <v>1.194198150463522</v>
       </c>
       <c r="C158" s="3">
         <v>44295</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44295</v>
+        <v>44295.625</v>
       </c>
       <c r="B159">
-        <v>1.232439773563236</v>
+        <v>1.232439773563237</v>
       </c>
       <c r="C159" s="3">
         <v>44295</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>44295.04166666667</v>
+        <v>44295.66666666667</v>
       </c>
       <c r="B160">
         <v>1.395275071923312</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>44295.08333333333</v>
+        <v>44295.70833333333</v>
       </c>
       <c r="B161">
         <v>1.381532759622321</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>44295.125</v>
+        <v>44295.75</v>
       </c>
       <c r="B162">
         <v>1.44091829949394</v>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>44295.16666666667</v>
+        <v>44295.79166666667</v>
       </c>
       <c r="B163">
-        <v>1.456955109180916</v>
+        <v>1.456955109180917</v>
       </c>
       <c r="C163" s="3">
         <v>44295</v>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>44295.20833333333</v>
+        <v>44295.83333333333</v>
       </c>
       <c r="B164">
-        <v>1.4316662939053</v>
+        <v>1.431666293905301</v>
       </c>
       <c r="C164" s="3">
         <v>44295</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>44295.25</v>
+        <v>44295.875</v>
       </c>
       <c r="B165">
-        <v>1.502598336751544</v>
+        <v>1.502598336751545</v>
       </c>
       <c r="C165" s="3">
         <v>44295</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>44295.29166666667</v>
+        <v>44295.91666666667</v>
       </c>
       <c r="B166">
-        <v>1.60622079934432</v>
+        <v>1.606220799344321</v>
       </c>
       <c r="C166" s="3">
         <v>44295</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>44295.33333333333</v>
+        <v>44295.95833333333</v>
       </c>
       <c r="B167">
         <v>1.576614381460673</v>
@@ -8402,10 +8402,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>44295.375</v>
+        <v>44296</v>
       </c>
       <c r="B168">
-        <v>1.600052795618562</v>
+        <v>1.600052795618563</v>
       </c>
       <c r="C168" s="3">
         <v>44295</v>
@@ -8453,10 +8453,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>44295.41666666667</v>
+        <v>44296.04166666667</v>
       </c>
       <c r="B169">
-        <v>1.575380780715518</v>
+        <v>1.575380780715519</v>
       </c>
       <c r="C169" s="3">
         <v>44295</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>44295.45833333333</v>
+        <v>44296.08333333333</v>
       </c>
       <c r="B170">
-        <v>1.60622079934432</v>
+        <v>1.606220799344321</v>
       </c>
       <c r="C170" s="3">
         <v>44295</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>44282.33333333333</v>
+        <v>44282.95833333333</v>
       </c>
       <c r="C171" s="3">
         <v>44282</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>44282.375</v>
+        <v>44283</v>
       </c>
       <c r="C172" s="3">
         <v>44282</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>44282.41666666667</v>
+        <v>44283.04166666667</v>
       </c>
       <c r="C173" s="3">
         <v>44282</v>
@@ -8699,7 +8699,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>44282.45833333333</v>
+        <v>44283.08333333333</v>
       </c>
       <c r="C174" s="3">
         <v>44282</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>44282.5</v>
+        <v>44283.125</v>
       </c>
       <c r="C175" s="3">
         <v>44282</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>44282.54166666667</v>
+        <v>44283.16666666667</v>
       </c>
       <c r="C176" s="3">
         <v>44282</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>44282.58333333333</v>
+        <v>44283.20833333333</v>
       </c>
       <c r="C177" s="3">
         <v>44282</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>44282.625</v>
+        <v>44283.25</v>
       </c>
       <c r="C178" s="3">
         <v>44282</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>44282.66666666667</v>
+        <v>44283.29166666667</v>
       </c>
       <c r="C179" s="3">
         <v>44283</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>44282.70833333333</v>
+        <v>44283.33333333333</v>
       </c>
       <c r="C180" s="3">
         <v>44283</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>44282.75</v>
+        <v>44283.375</v>
       </c>
       <c r="C181" s="3">
         <v>44283</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>44282.79166666667</v>
+        <v>44283.41666666667</v>
       </c>
       <c r="C182" s="3">
         <v>44283</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>44282.83333333333</v>
+        <v>44283.45833333333</v>
       </c>
       <c r="C183" s="3">
         <v>44283</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>44282.875</v>
+        <v>44283.5</v>
       </c>
       <c r="C184" s="3">
         <v>44283</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>44282.91666666667</v>
+        <v>44283.54166666667</v>
       </c>
       <c r="C185" s="3">
         <v>44283</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>44282.95833333333</v>
+        <v>44283.58333333333</v>
       </c>
       <c r="C186" s="3">
         <v>44283</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>44283</v>
+        <v>44283.625</v>
       </c>
       <c r="C187" s="3">
         <v>44283</v>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>44283.04166666667</v>
+        <v>44283.66666666667</v>
       </c>
       <c r="C188" s="3">
         <v>44283</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>44283.08333333333</v>
+        <v>44283.70833333333</v>
       </c>
       <c r="C189" s="3">
         <v>44283</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>44283.125</v>
+        <v>44283.75</v>
       </c>
       <c r="C190" s="3">
         <v>44283</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>44283.16666666667</v>
+        <v>44283.79166666667</v>
       </c>
       <c r="C191" s="3">
         <v>44283</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>44283.20833333333</v>
+        <v>44283.83333333333</v>
       </c>
       <c r="C192" s="3">
         <v>44283</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>44283.25</v>
+        <v>44283.875</v>
       </c>
       <c r="C193" s="3">
         <v>44283</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>44283.29166666667</v>
+        <v>44283.91666666667</v>
       </c>
       <c r="C194" s="3">
         <v>44283</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>44283.33333333333</v>
+        <v>44283.95833333333</v>
       </c>
       <c r="C195" s="3">
         <v>44283</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>44283.375</v>
+        <v>44284</v>
       </c>
       <c r="C196" s="3">
         <v>44283</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>44283.41666666667</v>
+        <v>44284.04166666667</v>
       </c>
       <c r="C197" s="3">
         <v>44283</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>44283.45833333333</v>
+        <v>44284.08333333333</v>
       </c>
       <c r="C198" s="3">
         <v>44283</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>44283.5</v>
+        <v>44284.125</v>
       </c>
       <c r="C199" s="3">
         <v>44283</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>44283.54166666667</v>
+        <v>44284.16666666667</v>
       </c>
       <c r="C200" s="3">
         <v>44283</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>44283.58333333333</v>
+        <v>44284.20833333333</v>
       </c>
       <c r="C201" s="3">
         <v>44283</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>44283.625</v>
+        <v>44284.25</v>
       </c>
       <c r="C202" s="3">
         <v>44283</v>
@@ -10091,7 +10091,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>44283.66666666667</v>
+        <v>44284.29166666667</v>
       </c>
       <c r="C203" s="3">
         <v>44284</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>44283.70833333333</v>
+        <v>44284.33333333333</v>
       </c>
       <c r="C204" s="3">
         <v>44284</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>44283.75</v>
+        <v>44284.375</v>
       </c>
       <c r="C205" s="3">
         <v>44284</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>44284.5</v>
+        <v>44285.125</v>
       </c>
       <c r="C206" s="3">
         <v>44284</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>44284.54166666667</v>
+        <v>44285.16666666667</v>
       </c>
       <c r="C207" s="3">
         <v>44284</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>44284.58333333333</v>
+        <v>44285.20833333333</v>
       </c>
       <c r="C208" s="3">
         <v>44284</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>44284.625</v>
+        <v>44285.25</v>
       </c>
       <c r="C209" s="3">
         <v>44284</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>44284.66666666667</v>
+        <v>44285.29166666667</v>
       </c>
       <c r="C210" s="3">
         <v>44285</v>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>44284.70833333333</v>
+        <v>44285.33333333333</v>
       </c>
       <c r="C211" s="3">
         <v>44285</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>44284.75</v>
+        <v>44285.375</v>
       </c>
       <c r="C212" s="3">
         <v>44285</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>44285.5</v>
+        <v>44286.125</v>
       </c>
       <c r="C213" s="3">
         <v>44285</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>44285.54166666667</v>
+        <v>44286.16666666667</v>
       </c>
       <c r="C214" s="3">
         <v>44285</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>44285.58333333333</v>
+        <v>44286.20833333333</v>
       </c>
       <c r="C215" s="3">
         <v>44285</v>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>44285.625</v>
+        <v>44286.25</v>
       </c>
       <c r="C216" s="3">
         <v>44285</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>44285.66666666667</v>
+        <v>44286.29166666667</v>
       </c>
       <c r="C217" s="3">
         <v>44286</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>44285.70833333333</v>
+        <v>44286.33333333333</v>
       </c>
       <c r="C218" s="3">
         <v>44286</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>44285.75</v>
+        <v>44286.375</v>
       </c>
       <c r="C219" s="3">
         <v>44286</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>44286.5</v>
+        <v>44287.125</v>
       </c>
       <c r="C220" s="3">
         <v>44286</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>44286.54166666667</v>
+        <v>44287.16666666667</v>
       </c>
       <c r="C221" s="3">
         <v>44286</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>44286.58333333333</v>
+        <v>44287.20833333333</v>
       </c>
       <c r="C222" s="3">
         <v>44286</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>44286.625</v>
+        <v>44287.25</v>
       </c>
       <c r="C223" s="3">
         <v>44286</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>44286.66666666667</v>
+        <v>44287.29166666667</v>
       </c>
       <c r="C224" s="3">
         <v>44287</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>44286.70833333333</v>
+        <v>44287.33333333333</v>
       </c>
       <c r="C225" s="3">
         <v>44287</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>44286.75</v>
+        <v>44287.375</v>
       </c>
       <c r="C226" s="3">
         <v>44287</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>44287.5</v>
+        <v>44288.125</v>
       </c>
       <c r="C227" s="3">
         <v>44287</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>44287.54166666667</v>
+        <v>44288.16666666667</v>
       </c>
       <c r="C228" s="3">
         <v>44287</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>44287.58333333333</v>
+        <v>44288.20833333333</v>
       </c>
       <c r="C229" s="3">
         <v>44287</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>44287.625</v>
+        <v>44288.25</v>
       </c>
       <c r="C230" s="3">
         <v>44287</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>44287.66666666667</v>
+        <v>44288.29166666667</v>
       </c>
       <c r="C231" s="3">
         <v>44288</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>44287.70833333333</v>
+        <v>44288.33333333333</v>
       </c>
       <c r="C232" s="3">
         <v>44288</v>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>44287.75</v>
+        <v>44288.375</v>
       </c>
       <c r="C233" s="3">
         <v>44288</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>44287.79166666667</v>
+        <v>44288.41666666667</v>
       </c>
       <c r="C234" s="3">
         <v>44288</v>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>44287.83333333333</v>
+        <v>44288.45833333333</v>
       </c>
       <c r="C235" s="3">
         <v>44288</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>44287.875</v>
+        <v>44288.5</v>
       </c>
       <c r="C236" s="3">
         <v>44288</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>44287.91666666667</v>
+        <v>44288.54166666667</v>
       </c>
       <c r="C237" s="3">
         <v>44288</v>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>44287.95833333333</v>
+        <v>44288.58333333333</v>
       </c>
       <c r="C238" s="3">
         <v>44288</v>
@@ -11819,7 +11819,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>44288</v>
+        <v>44288.625</v>
       </c>
       <c r="C239" s="3">
         <v>44288</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>44288.04166666667</v>
+        <v>44288.66666666667</v>
       </c>
       <c r="C240" s="3">
         <v>44288</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>44288.08333333333</v>
+        <v>44288.70833333333</v>
       </c>
       <c r="C241" s="3">
         <v>44288</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>44288.125</v>
+        <v>44288.75</v>
       </c>
       <c r="C242" s="3">
         <v>44288</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>44288.16666666667</v>
+        <v>44288.79166666667</v>
       </c>
       <c r="C243" s="3">
         <v>44288</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>44288.20833333333</v>
+        <v>44288.83333333333</v>
       </c>
       <c r="C244" s="3">
         <v>44288</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>44288.25</v>
+        <v>44288.875</v>
       </c>
       <c r="C245" s="3">
         <v>44288</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>44288.29166666667</v>
+        <v>44288.91666666667</v>
       </c>
       <c r="C246" s="3">
         <v>44288</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>44288.33333333333</v>
+        <v>44288.95833333333</v>
       </c>
       <c r="C247" s="3">
         <v>44288</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>44288.375</v>
+        <v>44289</v>
       </c>
       <c r="C248" s="3">
         <v>44288</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>44290.45833333333</v>
+        <v>44291.08333333333</v>
       </c>
       <c r="C249" s="3">
         <v>44290</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>44290.5</v>
+        <v>44291.125</v>
       </c>
       <c r="C250" s="3">
         <v>44290</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>44290.54166666667</v>
+        <v>44291.16666666667</v>
       </c>
       <c r="C251" s="3">
         <v>44290</v>
@@ -12443,7 +12443,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>44290.58333333333</v>
+        <v>44291.20833333333</v>
       </c>
       <c r="C252" s="3">
         <v>44290</v>
@@ -12491,7 +12491,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>44290.625</v>
+        <v>44291.25</v>
       </c>
       <c r="C253" s="3">
         <v>44290</v>
@@ -12539,7 +12539,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>44290.66666666667</v>
+        <v>44291.29166666667</v>
       </c>
       <c r="C254" s="3">
         <v>44291</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>44290.70833333333</v>
+        <v>44291.33333333333</v>
       </c>
       <c r="C255" s="3">
         <v>44291</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>44290.75</v>
+        <v>44291.375</v>
       </c>
       <c r="C256" s="3">
         <v>44291</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>44291.5</v>
+        <v>44292.125</v>
       </c>
       <c r="C257" s="3">
         <v>44291</v>
@@ -12731,7 +12731,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>44291.54166666667</v>
+        <v>44292.16666666667</v>
       </c>
       <c r="C258" s="3">
         <v>44291</v>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>44291.58333333333</v>
+        <v>44292.20833333333</v>
       </c>
       <c r="C259" s="3">
         <v>44291</v>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>44291.625</v>
+        <v>44292.25</v>
       </c>
       <c r="C260" s="3">
         <v>44291</v>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>44291.66666666667</v>
+        <v>44292.29166666667</v>
       </c>
       <c r="C261" s="3">
         <v>44292</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>44291.70833333333</v>
+        <v>44292.33333333333</v>
       </c>
       <c r="C262" s="3">
         <v>44292</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>44291.75</v>
+        <v>44292.375</v>
       </c>
       <c r="C263" s="3">
         <v>44292</v>
@@ -13019,7 +13019,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>44292.5</v>
+        <v>44293.125</v>
       </c>
       <c r="C264" s="3">
         <v>44292</v>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>44292.54166666667</v>
+        <v>44293.16666666667</v>
       </c>
       <c r="C265" s="3">
         <v>44292</v>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>44292.58333333333</v>
+        <v>44293.20833333333</v>
       </c>
       <c r="C266" s="3">
         <v>44292</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>44292.625</v>
+        <v>44293.25</v>
       </c>
       <c r="C267" s="3">
         <v>44292</v>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>44292.66666666667</v>
+        <v>44293.29166666667</v>
       </c>
       <c r="C268" s="3">
         <v>44293</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>44292.70833333333</v>
+        <v>44293.33333333333</v>
       </c>
       <c r="C269" s="3">
         <v>44293</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>44292.75</v>
+        <v>44293.375</v>
       </c>
       <c r="C270" s="3">
         <v>44293</v>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>44292.79166666667</v>
+        <v>44293.41666666667</v>
       </c>
       <c r="C271" s="3">
         <v>44293</v>
@@ -13403,7 +13403,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>44293.5</v>
+        <v>44294.125</v>
       </c>
       <c r="C272" s="3">
         <v>44293</v>
@@ -13451,7 +13451,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>44293.54166666667</v>
+        <v>44294.16666666667</v>
       </c>
       <c r="C273" s="3">
         <v>44293</v>
@@ -13499,7 +13499,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>44293.58333333333</v>
+        <v>44294.20833333333</v>
       </c>
       <c r="C274" s="3">
         <v>44293</v>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>44293.625</v>
+        <v>44294.25</v>
       </c>
       <c r="C275" s="3">
         <v>44293</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>44293.66666666667</v>
+        <v>44294.29166666667</v>
       </c>
       <c r="C276" s="3">
         <v>44294</v>
@@ -13643,7 +13643,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>44293.70833333333</v>
+        <v>44294.33333333333</v>
       </c>
       <c r="C277" s="3">
         <v>44294</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>44293.75</v>
+        <v>44294.375</v>
       </c>
       <c r="C278" s="3">
         <v>44294</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>44294.5</v>
+        <v>44295.125</v>
       </c>
       <c r="C279" s="3">
         <v>44294</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>44294.54166666667</v>
+        <v>44295.16666666667</v>
       </c>
       <c r="C280" s="3">
         <v>44294</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>44294.58333333333</v>
+        <v>44295.20833333333</v>
       </c>
       <c r="C281" s="3">
         <v>44294</v>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>44294.625</v>
+        <v>44295.25</v>
       </c>
       <c r="C282" s="3">
         <v>44294</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>44294.66666666667</v>
+        <v>44295.29166666667</v>
       </c>
       <c r="C283" s="3">
         <v>44295</v>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>44294.70833333333</v>
+        <v>44295.33333333333</v>
       </c>
       <c r="C284" s="3">
         <v>44295</v>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>44294.75</v>
+        <v>44295.375</v>
       </c>
       <c r="C285" s="3">
         <v>44295</v>
@@ -14075,7 +14075,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>44295.5</v>
+        <v>44296.125</v>
       </c>
       <c r="C286" s="3">
         <v>44295</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>44295.54166666667</v>
+        <v>44296.16666666667</v>
       </c>
       <c r="C287" s="3">
         <v>44295</v>
@@ -14171,7 +14171,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>44295.58333333333</v>
+        <v>44296.20833333333</v>
       </c>
       <c r="C288" s="3">
         <v>44295</v>
@@ -14219,7 +14219,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>44295.625</v>
+        <v>44296.25</v>
       </c>
       <c r="C289" s="3">
         <v>44295</v>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>44295.66666666667</v>
+        <v>44296.29166666667</v>
       </c>
       <c r="C290" s="3">
         <v>44296</v>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>44295.70833333333</v>
+        <v>44296.33333333333</v>
       </c>
       <c r="C291" s="3">
         <v>44296</v>
@@ -14363,7 +14363,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>44295.75</v>
+        <v>44296.375</v>
       </c>
       <c r="C292" s="3">
         <v>44296</v>
@@ -14411,7 +14411,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>44295.79166666667</v>
+        <v>44296.41666666667</v>
       </c>
       <c r="C293" s="3">
         <v>44296</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>44295.83333333333</v>
+        <v>44296.45833333333</v>
       </c>
       <c r="C294" s="3">
         <v>44296</v>
